--- a/24-25/Invoice 24-25/19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\19 BK019 Mar 24-25 (VK) Markino Black\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B7B5FA9-1432-4E09-BB38-20C72ED2572A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E7C590-2612-4C21-8573-8156D1457162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="1" r:id="rId1"/>
@@ -1295,58 +1295,53 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1373,32 +1368,73 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1423,24 +1459,6 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1450,24 +1468,45 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1481,45 +1520,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2942,8 +2942,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31118,8 +31118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="O33" sqref="O33"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="R26" sqref="R26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31138,7 +31138,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="98" t="s">
+      <c r="A1" s="97" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="70"/>
@@ -31152,16 +31152,16 @@
       <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="76"/>
-      <c r="B2" s="76"/>
-      <c r="C2" s="76"/>
-      <c r="D2" s="76"/>
-      <c r="E2" s="76"/>
-      <c r="F2" s="76"/>
-      <c r="G2" s="76"/>
-      <c r="H2" s="76"/>
-      <c r="I2" s="76"/>
-      <c r="J2" s="76"/>
+      <c r="A2" s="77"/>
+      <c r="B2" s="77"/>
+      <c r="C2" s="77"/>
+      <c r="D2" s="77"/>
+      <c r="E2" s="77"/>
+      <c r="F2" s="77"/>
+      <c r="G2" s="77"/>
+      <c r="H2" s="77"/>
+      <c r="I2" s="77"/>
+      <c r="J2" s="77"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31170,16 +31170,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="81" t="s">
+      <c r="E3" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="82"/>
-      <c r="G3" s="79"/>
-      <c r="H3" s="81" t="s">
+      <c r="F3" s="81"/>
+      <c r="G3" s="73"/>
+      <c r="H3" s="72" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="82"/>
-      <c r="J3" s="79"/>
+      <c r="I3" s="81"/>
+      <c r="J3" s="73"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31188,18 +31188,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="99" t="str">
+      <c r="E4" s="98" t="str">
         <f>'input data'!B3</f>
         <v>BK019/24-25</v>
       </c>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77"/>
-      <c r="H4" s="100">
+      <c r="F4" s="77"/>
+      <c r="G4" s="75"/>
+      <c r="H4" s="99">
         <f>'input data'!B4</f>
         <v>45727</v>
       </c>
-      <c r="I4" s="76"/>
-      <c r="J4" s="77"/>
+      <c r="I4" s="77"/>
+      <c r="J4" s="75"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31208,16 +31208,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="81" t="s">
+      <c r="E5" s="72" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="82"/>
-      <c r="G5" s="79"/>
-      <c r="H5" s="81" t="s">
+      <c r="F5" s="81"/>
+      <c r="G5" s="73"/>
+      <c r="H5" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="82"/>
-      <c r="J5" s="79"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="73"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31226,15 +31226,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="94"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="93" t="str">
+      <c r="E6" s="76"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="75"/>
+      <c r="H6" s="103" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="76"/>
-      <c r="J6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="75"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31243,16 +31243,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="81" t="s">
+      <c r="E7" s="72" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="82"/>
-      <c r="G7" s="79"/>
-      <c r="H7" s="81" t="s">
+      <c r="F7" s="81"/>
+      <c r="G7" s="73"/>
+      <c r="H7" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="82"/>
-      <c r="J7" s="79"/>
+      <c r="I7" s="81"/>
+      <c r="J7" s="73"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31261,16 +31261,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="94" t="s">
+      <c r="E8" s="76" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="76"/>
-      <c r="G8" s="77"/>
-      <c r="H8" s="95" t="s">
+      <c r="F8" s="77"/>
+      <c r="G8" s="75"/>
+      <c r="H8" s="74" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="76"/>
-      <c r="J8" s="77"/>
+      <c r="I8" s="77"/>
+      <c r="J8" s="75"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31279,16 +31279,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="82"/>
-      <c r="G9" s="79"/>
-      <c r="H9" s="81" t="s">
+      <c r="F9" s="81"/>
+      <c r="G9" s="73"/>
+      <c r="H9" s="72" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="82"/>
-      <c r="J9" s="79"/>
+      <c r="I9" s="81"/>
+      <c r="J9" s="73"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31297,68 +31297,68 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="87" t="str">
+      <c r="E10" s="94" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="70"/>
-      <c r="G10" s="73"/>
-      <c r="H10" s="87" t="str">
+      <c r="G10" s="83"/>
+      <c r="H10" s="94" t="str">
         <f>'input data'!B12 &amp; " " &amp; 'input data'!B14</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="70"/>
-      <c r="J10" s="73"/>
+      <c r="J10" s="83"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="97" t="s">
+      <c r="A11" s="96" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="79"/>
-      <c r="E11" s="101" t="s">
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="73"/>
+      <c r="E11" s="100" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="89"/>
       <c r="G11" s="90"/>
-      <c r="H11" s="88" t="s">
+      <c r="H11" s="105" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="102" t="s">
+      <c r="A12" s="101" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
-      <c r="D12" s="73"/>
-      <c r="E12" s="103" t="str">
+      <c r="D12" s="83"/>
+      <c r="E12" s="102" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="73"/>
-      <c r="H12" s="91" t="str">
+      <c r="G12" s="83"/>
+      <c r="H12" s="106" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="70"/>
-      <c r="J12" s="73"/>
+      <c r="J12" s="83"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="76"/>
-      <c r="G13" s="77"/>
-      <c r="H13" s="76"/>
-      <c r="I13" s="76"/>
-      <c r="J13" s="77"/>
+      <c r="E13" s="87"/>
+      <c r="F13" s="77"/>
+      <c r="G13" s="75"/>
+      <c r="H13" s="77"/>
+      <c r="I13" s="77"/>
+      <c r="J13" s="75"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31367,17 +31367,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="92" t="s">
+      <c r="E14" s="107" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="82"/>
-      <c r="G14" s="82"/>
-      <c r="H14" s="82"/>
-      <c r="I14" s="82"/>
-      <c r="J14" s="79"/>
+      <c r="F14" s="81"/>
+      <c r="G14" s="81"/>
+      <c r="H14" s="81"/>
+      <c r="I14" s="81"/>
+      <c r="J14" s="73"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="str">
+      <c r="A15" s="108" t="str">
         <f>'input data'!B6</f>
         <v xml:space="preserve">Name: NGUYEN MINH IMPORT EXPORT TM&amp;DV COMPANY LIMITED
 Add:  1041/82/1 Tran Xuan Soan, Tan Hung Ward, District 7, Ho Chi Minh city
@@ -31387,225 +31387,225 @@
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
-      <c r="D15" s="73"/>
-      <c r="E15" s="74"/>
+      <c r="D15" s="83"/>
+      <c r="E15" s="82"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
-      <c r="J15" s="73"/>
+      <c r="J15" s="83"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
-      <c r="D16" s="73"/>
-      <c r="E16" s="74"/>
+      <c r="D16" s="83"/>
+      <c r="E16" s="82"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="73"/>
+      <c r="J16" s="83"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
-      <c r="D17" s="73"/>
-      <c r="E17" s="74"/>
+      <c r="D17" s="83"/>
+      <c r="E17" s="82"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
-      <c r="J17" s="73"/>
+      <c r="J17" s="83"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
-      <c r="D18" s="73"/>
-      <c r="E18" s="74"/>
+      <c r="D18" s="83"/>
+      <c r="E18" s="82"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="73"/>
+      <c r="J18" s="83"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
-      <c r="D19" s="73"/>
-      <c r="E19" s="74"/>
+      <c r="D19" s="83"/>
+      <c r="E19" s="82"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
-      <c r="J19" s="73"/>
+      <c r="J19" s="83"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="75"/>
-      <c r="F20" s="76"/>
-      <c r="G20" s="76"/>
-      <c r="H20" s="76"/>
-      <c r="I20" s="76"/>
-      <c r="J20" s="77"/>
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="75"/>
+      <c r="E20" s="87"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="77"/>
+      <c r="H20" s="77"/>
+      <c r="I20" s="77"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="78" t="s">
+      <c r="A21" s="104" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="79"/>
-      <c r="C21" s="78" t="s">
+      <c r="B21" s="73"/>
+      <c r="C21" s="104" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="79"/>
-      <c r="E21" s="78" t="s">
+      <c r="D21" s="73"/>
+      <c r="E21" s="104" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="82"/>
-      <c r="G21" s="79"/>
-      <c r="H21" s="78" t="s">
+      <c r="F21" s="81"/>
+      <c r="G21" s="73"/>
+      <c r="H21" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="82"/>
-      <c r="J21" s="79"/>
+      <c r="I21" s="81"/>
+      <c r="J21" s="73"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="80" t="s">
+      <c r="A22" s="109" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="73"/>
-      <c r="C22" s="84" t="str">
+      <c r="B22" s="83"/>
+      <c r="C22" s="111" t="str">
         <f>'input data'!B18</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D22" s="73"/>
-      <c r="E22" s="85" t="s">
+      <c r="D22" s="83"/>
+      <c r="E22" s="112" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="70"/>
-      <c r="G22" s="73"/>
-      <c r="H22" s="85" t="str">
+      <c r="G22" s="83"/>
+      <c r="H22" s="112" t="str">
         <f>'input data'!B22</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="70"/>
-      <c r="J22" s="73"/>
+      <c r="J22" s="83"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="86"/>
-      <c r="B23" s="73"/>
-      <c r="C23" s="75"/>
-      <c r="D23" s="77"/>
-      <c r="E23" s="75"/>
-      <c r="F23" s="76"/>
-      <c r="G23" s="77"/>
-      <c r="H23" s="75"/>
-      <c r="I23" s="76"/>
-      <c r="J23" s="77"/>
+      <c r="A23" s="113"/>
+      <c r="B23" s="83"/>
+      <c r="C23" s="87"/>
+      <c r="D23" s="75"/>
+      <c r="E23" s="87"/>
+      <c r="F23" s="77"/>
+      <c r="G23" s="75"/>
+      <c r="H23" s="87"/>
+      <c r="I23" s="77"/>
+      <c r="J23" s="75"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="81" t="s">
+      <c r="A24" s="72" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="79"/>
-      <c r="C24" s="83" t="s">
+      <c r="B24" s="73"/>
+      <c r="C24" s="110" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="79"/>
-      <c r="E24" s="81" t="s">
+      <c r="D24" s="73"/>
+      <c r="E24" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="82"/>
-      <c r="G24" s="79"/>
-      <c r="H24" s="83" t="s">
+      <c r="F24" s="81"/>
+      <c r="G24" s="73"/>
+      <c r="H24" s="110" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="82"/>
-      <c r="J24" s="79"/>
+      <c r="I24" s="81"/>
+      <c r="J24" s="73"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="94"/>
-      <c r="B25" s="77"/>
-      <c r="C25" s="95" t="str">
+      <c r="A25" s="76"/>
+      <c r="B25" s="75"/>
+      <c r="C25" s="74" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D25" s="77"/>
-      <c r="E25" s="95" t="str">
+      <c r="D25" s="75"/>
+      <c r="E25" s="74" t="str">
         <f>'input data'!B20</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="76"/>
-      <c r="G25" s="77"/>
-      <c r="H25" s="95" t="str">
+      <c r="F25" s="77"/>
+      <c r="G25" s="75"/>
+      <c r="H25" s="74" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="76"/>
-      <c r="J25" s="77"/>
+      <c r="I25" s="77"/>
+      <c r="J25" s="75"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="111" t="s">
+      <c r="A26" s="78" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="113" t="s">
+      <c r="B26" s="80" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="82"/>
-      <c r="D26" s="79"/>
-      <c r="E26" s="111" t="s">
+      <c r="C26" s="81"/>
+      <c r="D26" s="73"/>
+      <c r="E26" s="78" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="81" t="s">
+      <c r="F26" s="72" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="79"/>
+      <c r="G26" s="73"/>
       <c r="H26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="81" t="s">
+      <c r="I26" s="72" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="79"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="112"/>
-      <c r="B27" s="74"/>
+      <c r="A27" s="79"/>
+      <c r="B27" s="82"/>
       <c r="C27" s="70"/>
-      <c r="D27" s="73"/>
-      <c r="E27" s="112"/>
-      <c r="F27" s="95" t="s">
+      <c r="D27" s="83"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="77"/>
+      <c r="G27" s="75"/>
       <c r="H27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="95" t="s">
+      <c r="I27" s="74" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="77"/>
+      <c r="J27" s="75"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="110" t="str">
+      <c r="B28" s="88" t="str">
         <f>'input data'!B17</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="90"/>
       <c r="E28" s="28">
-        <v>68029310</v>
+        <v>68022390</v>
       </c>
-      <c r="F28" s="104">
+      <c r="F28" s="91">
         <f>'input data'!B25</f>
         <v>552.28</v>
       </c>
@@ -31614,7 +31614,7 @@
         <f>'input data'!B26</f>
         <v>8.6</v>
       </c>
-      <c r="I28" s="105">
+      <c r="I28" s="92">
         <f>H28*F28</f>
         <v>4749.6079999999993</v>
       </c>
@@ -31622,12 +31622,12 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="94"/>
-      <c r="C29" s="76"/>
-      <c r="D29" s="77"/>
+      <c r="B29" s="76"/>
+      <c r="C29" s="77"/>
+      <c r="D29" s="75"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="94"/>
-      <c r="G29" s="77"/>
+      <c r="F29" s="76"/>
+      <c r="G29" s="75"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="31"/>
@@ -31653,7 +31653,7 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="87" t="str">
+      <c r="A31" s="94" t="str">
         <f>UPPER('input data'!B23)</f>
         <v>MEDU1373275</v>
       </c>
@@ -31680,7 +31680,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="106"/>
+      <c r="F32" s="93"/>
       <c r="G32" s="70"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19"/>
@@ -31709,11 +31709,11 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="96">
+      <c r="I34" s="95">
         <f>SUM(I28:J33)</f>
         <v>4749.6079999999993</v>
       </c>
-      <c r="J34" s="79"/>
+      <c r="J34" s="73"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
@@ -31726,32 +31726,32 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="75"/>
-      <c r="J35" s="77"/>
+      <c r="I35" s="87"/>
+      <c r="J35" s="75"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="107" t="s">
+      <c r="A36" s="84" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="82"/>
-      <c r="C36" s="82"/>
-      <c r="D36" s="79"/>
-      <c r="E36" s="97" t="s">
+      <c r="B36" s="81"/>
+      <c r="C36" s="81"/>
+      <c r="D36" s="73"/>
+      <c r="E36" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="82"/>
-      <c r="G36" s="82"/>
-      <c r="H36" s="82"/>
-      <c r="I36" s="82"/>
-      <c r="J36" s="79"/>
+      <c r="F36" s="81"/>
+      <c r="G36" s="81"/>
+      <c r="H36" s="81"/>
+      <c r="I36" s="81"/>
+      <c r="J36" s="73"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="108" t="s">
+      <c r="A37" s="85" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="73"/>
+      <c r="D37" s="83"/>
       <c r="E37" s="19" t="s">
         <v>86</v>
       </c>
@@ -31762,10 +31762,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="74"/>
+      <c r="A38" s="82"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
-      <c r="D38" s="73"/>
+      <c r="D38" s="83"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31774,12 +31774,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="109" t="s">
+      <c r="A39" s="86" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
-      <c r="D39" s="73"/>
+      <c r="D39" s="83"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31788,10 +31788,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="75"/>
-      <c r="B40" s="76"/>
-      <c r="C40" s="76"/>
-      <c r="D40" s="77"/>
+      <c r="A40" s="87"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="77"/>
+      <c r="D40" s="75"/>
       <c r="E40" s="32" t="s">
         <v>88</v>
       </c>
@@ -32761,27 +32761,30 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="A1:J2"/>
@@ -32798,30 +32801,27 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A31:B31"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -32837,8 +32837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J1"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="O24" sqref="O24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32850,7 +32850,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="133" t="s">
+      <c r="A1" s="116" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="70"/>
@@ -32864,42 +32864,42 @@
       <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="97" t="s">
+      <c r="A2" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="82"/>
-      <c r="C2" s="82"/>
-      <c r="D2" s="82"/>
-      <c r="E2" s="82"/>
-      <c r="F2" s="79"/>
-      <c r="G2" s="81" t="s">
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="73"/>
+      <c r="G2" s="72" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="79"/>
-      <c r="I2" s="134" t="s">
+      <c r="H2" s="73"/>
+      <c r="I2" s="114" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="79"/>
+      <c r="J2" s="73"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="135" t="s">
+      <c r="A3" s="117" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
-      <c r="F3" s="73"/>
-      <c r="G3" s="99" t="str">
+      <c r="F3" s="83"/>
+      <c r="G3" s="98" t="str">
         <f>Inovice!E4</f>
         <v>BK019/24-25</v>
       </c>
-      <c r="H3" s="77"/>
-      <c r="I3" s="100">
+      <c r="H3" s="75"/>
+      <c r="I3" s="99">
         <f>Inovice!H4</f>
         <v>45727</v>
       </c>
-      <c r="J3" s="77"/>
+      <c r="J3" s="75"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -32910,12 +32910,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="134" t="s">
+      <c r="G4" s="114" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="79"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="73"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -32926,15 +32926,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="95" t="s">
+      <c r="G5" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="76"/>
-      <c r="I5" s="76"/>
-      <c r="J5" s="77"/>
+      <c r="H5" s="77"/>
+      <c r="I5" s="77"/>
+      <c r="J5" s="75"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="127" t="s">
+      <c r="A6" s="118" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="70"/>
@@ -33010,13 +33010,13 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="128" t="s">
+      <c r="A11" s="119" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="82"/>
-      <c r="C11" s="82"/>
-      <c r="D11" s="82"/>
-      <c r="E11" s="82"/>
+      <c r="B11" s="81"/>
+      <c r="C11" s="81"/>
+      <c r="D11" s="81"/>
+      <c r="E11" s="81"/>
       <c r="F11" s="18"/>
       <c r="G11" s="37" t="s">
         <v>101</v>
@@ -33026,7 +33026,7 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="129" t="s">
+      <c r="A12" s="120" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="70"/>
@@ -33040,11 +33040,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="75"/>
-      <c r="B13" s="76"/>
-      <c r="C13" s="76"/>
-      <c r="D13" s="76"/>
-      <c r="E13" s="76"/>
+      <c r="A13" s="87"/>
+      <c r="B13" s="77"/>
+      <c r="C13" s="77"/>
+      <c r="D13" s="77"/>
+      <c r="E13" s="77"/>
       <c r="F13" s="31"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33052,21 +33052,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="128" t="s">
+      <c r="A14" s="119" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="82"/>
-      <c r="C14" s="82"/>
-      <c r="D14" s="82"/>
-      <c r="E14" s="82"/>
-      <c r="F14" s="79"/>
+      <c r="B14" s="81"/>
+      <c r="C14" s="81"/>
+      <c r="D14" s="81"/>
+      <c r="E14" s="81"/>
+      <c r="F14" s="73"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="72" t="str">
+      <c r="A15" s="108" t="str">
         <f>Inovice!A15</f>
         <v xml:space="preserve">Name: NGUYEN MINH IMPORT EXPORT TM&amp;DV COMPANY LIMITED
 Add:  1041/82/1 Tran Xuan Soan, Tan Hung Ward, District 7, Ho Chi Minh city
@@ -33078,93 +33078,93 @@
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="73"/>
+      <c r="F15" s="83"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="74"/>
+      <c r="A16" s="82"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
-      <c r="F16" s="73"/>
+      <c r="F16" s="83"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="74"/>
+      <c r="A17" s="82"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
-      <c r="F17" s="73"/>
+      <c r="F17" s="83"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="74"/>
+      <c r="A18" s="82"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
-      <c r="F18" s="73"/>
-      <c r="G18" s="136" t="s">
+      <c r="F18" s="83"/>
+      <c r="G18" s="115" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="79"/>
-      <c r="I18" s="137" t="s">
+      <c r="H18" s="73"/>
+      <c r="I18" s="124" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="79"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="74"/>
+      <c r="A19" s="82"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
-      <c r="F19" s="73"/>
-      <c r="G19" s="75"/>
-      <c r="H19" s="77"/>
-      <c r="I19" s="76"/>
-      <c r="J19" s="77"/>
+      <c r="F19" s="83"/>
+      <c r="G19" s="87"/>
+      <c r="H19" s="75"/>
+      <c r="I19" s="77"/>
+      <c r="J19" s="75"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="75"/>
-      <c r="B20" s="76"/>
-      <c r="C20" s="76"/>
-      <c r="D20" s="76"/>
-      <c r="E20" s="76"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="138" t="s">
+      <c r="A20" s="87"/>
+      <c r="B20" s="77"/>
+      <c r="C20" s="77"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="77"/>
+      <c r="F20" s="75"/>
+      <c r="G20" s="125" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="77"/>
-      <c r="I20" s="138" t="str">
+      <c r="H20" s="75"/>
+      <c r="I20" s="125" t="str">
         <f>Inovice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="77"/>
+      <c r="J20" s="75"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="124" t="s">
+      <c r="A21" s="121" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="82"/>
-      <c r="C21" s="79"/>
-      <c r="D21" s="124" t="s">
+      <c r="B21" s="81"/>
+      <c r="C21" s="73"/>
+      <c r="D21" s="121" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="82"/>
-      <c r="F21" s="79"/>
-      <c r="G21" s="125" t="s">
+      <c r="E21" s="81"/>
+      <c r="F21" s="73"/>
+      <c r="G21" s="122" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="89"/>
@@ -33172,66 +33172,66 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="94"/>
-      <c r="B22" s="76"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="95" t="str">
+      <c r="A22" s="76"/>
+      <c r="B22" s="77"/>
+      <c r="C22" s="75"/>
+      <c r="D22" s="74" t="str">
         <f>Inovice!C22</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E22" s="76"/>
-      <c r="F22" s="77"/>
-      <c r="G22" s="126" t="str">
+      <c r="E22" s="77"/>
+      <c r="F22" s="75"/>
+      <c r="G22" s="123" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="76"/>
-      <c r="I22" s="76"/>
-      <c r="J22" s="77"/>
+      <c r="H22" s="77"/>
+      <c r="I22" s="77"/>
+      <c r="J22" s="75"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="124" t="s">
+      <c r="A23" s="121" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="82"/>
-      <c r="C23" s="79"/>
-      <c r="D23" s="124" t="s">
+      <c r="B23" s="81"/>
+      <c r="C23" s="73"/>
+      <c r="D23" s="121" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="82"/>
-      <c r="F23" s="79"/>
+      <c r="E23" s="81"/>
+      <c r="F23" s="73"/>
       <c r="G23" s="44"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="94"/>
-      <c r="B24" s="76"/>
-      <c r="C24" s="77"/>
-      <c r="D24" s="95" t="str">
+      <c r="A24" s="76"/>
+      <c r="B24" s="77"/>
+      <c r="C24" s="75"/>
+      <c r="D24" s="74" t="str">
         <f>Inovice!C25</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E24" s="76"/>
-      <c r="F24" s="77"/>
+      <c r="E24" s="77"/>
+      <c r="F24" s="75"/>
       <c r="G24" s="32"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="124" t="s">
+      <c r="A25" s="121" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="82"/>
-      <c r="C25" s="79"/>
-      <c r="D25" s="124" t="s">
+      <c r="B25" s="81"/>
+      <c r="C25" s="73"/>
+      <c r="D25" s="121" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="82"/>
-      <c r="F25" s="79"/>
-      <c r="G25" s="114" t="s">
+      <c r="E25" s="81"/>
+      <c r="F25" s="73"/>
+      <c r="G25" s="126" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="89"/>
@@ -33239,25 +33239,25 @@
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="86" t="str">
+      <c r="A26" s="113" t="str">
         <f>Inovice!E25</f>
         <v>DA NANG</v>
       </c>
       <c r="B26" s="70"/>
-      <c r="C26" s="73"/>
-      <c r="D26" s="86" t="str">
+      <c r="C26" s="83"/>
+      <c r="D26" s="113" t="str">
         <f>Inovice!H25</f>
         <v>DA NANG</v>
       </c>
       <c r="E26" s="70"/>
-      <c r="F26" s="73"/>
-      <c r="G26" s="136" t="str">
+      <c r="F26" s="83"/>
+      <c r="G26" s="115" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="82"/>
-      <c r="I26" s="82"/>
-      <c r="J26" s="79"/>
+      <c r="H26" s="81"/>
+      <c r="I26" s="81"/>
+      <c r="J26" s="73"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
@@ -33275,32 +33275,32 @@
       <c r="A28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="95" t="s">
+      <c r="B28" s="74" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="77"/>
-      <c r="D28" s="95" t="s">
+      <c r="C28" s="75"/>
+      <c r="D28" s="74" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="76"/>
-      <c r="F28" s="76"/>
+      <c r="E28" s="77"/>
+      <c r="F28" s="77"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="95" t="s">
+      <c r="I28" s="74" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="77"/>
+      <c r="J28" s="75"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="110">
+      <c r="B29" s="88">
         <f>Inovice!E28</f>
-        <v>68029310</v>
+        <v>68022390</v>
       </c>
       <c r="C29" s="90"/>
-      <c r="D29" s="130" t="str">
+      <c r="D29" s="136" t="str">
         <f>Inovice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -33308,7 +33308,7 @@
       <c r="F29" s="89"/>
       <c r="G29" s="89"/>
       <c r="H29" s="90"/>
-      <c r="I29" s="131">
+      <c r="I29" s="137">
         <f>Inovice!F28</f>
         <v>552.28</v>
       </c>
@@ -33325,7 +33325,7 @@
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
-      <c r="I30" s="132">
+      <c r="I30" s="138">
         <f>SUM(I29:J29)</f>
         <v>552.28</v>
       </c>
@@ -33344,14 +33344,14 @@
       <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="86" t="s">
+      <c r="A32" s="113" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="106" t="s">
+      <c r="D32" s="93" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="70"/>
@@ -33364,7 +33364,7 @@
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="87" t="str">
+      <c r="A33" s="94" t="str">
         <f>Inovice!A31</f>
         <v>MEDU1373275</v>
       </c>
@@ -33373,7 +33373,7 @@
         <f>Inovice!C31</f>
         <v>186</v>
       </c>
-      <c r="D33" s="122" t="s">
+      <c r="D33" s="134" t="s">
         <v>114</v>
       </c>
       <c r="E33" s="70"/>
@@ -33441,64 +33441,64 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="97" t="s">
+      <c r="A38" s="96" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="82"/>
-      <c r="C38" s="82"/>
-      <c r="D38" s="82"/>
-      <c r="E38" s="82"/>
-      <c r="F38" s="79"/>
-      <c r="G38" s="97" t="s">
+      <c r="B38" s="81"/>
+      <c r="C38" s="81"/>
+      <c r="D38" s="81"/>
+      <c r="E38" s="81"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="96" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="82"/>
-      <c r="I38" s="82"/>
-      <c r="J38" s="79"/>
+      <c r="H38" s="81"/>
+      <c r="I38" s="81"/>
+      <c r="J38" s="73"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="123" t="s">
+      <c r="A39" s="135" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="73"/>
+      <c r="F39" s="83"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="115" t="s">
+      <c r="A40" s="127" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="116"/>
-      <c r="C40" s="116"/>
-      <c r="D40" s="116"/>
-      <c r="E40" s="116"/>
-      <c r="F40" s="117"/>
+      <c r="B40" s="128"/>
+      <c r="C40" s="128"/>
+      <c r="D40" s="128"/>
+      <c r="E40" s="128"/>
+      <c r="F40" s="129"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="118" t="s">
+      <c r="A41" s="130" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="119"/>
-      <c r="C41" s="119"/>
-      <c r="D41" s="119"/>
-      <c r="E41" s="119"/>
-      <c r="F41" s="120"/>
-      <c r="G41" s="121" t="s">
+      <c r="B41" s="131"/>
+      <c r="C41" s="131"/>
+      <c r="D41" s="131"/>
+      <c r="E41" s="131"/>
+      <c r="F41" s="132"/>
+      <c r="G41" s="133" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="76"/>
-      <c r="I41" s="76"/>
-      <c r="J41" s="77"/>
+      <c r="H41" s="77"/>
+      <c r="I41" s="77"/>
+      <c r="J41" s="75"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34459,41 +34459,6 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A22:C22"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A40:F40"/>
@@ -34510,6 +34475,41 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34540,30 +34540,30 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59"/>
-      <c r="B1" s="156" t="s">
+      <c r="B1" s="139" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="82"/>
-      <c r="D1" s="82"/>
-      <c r="E1" s="82"/>
-      <c r="F1" s="82"/>
-      <c r="G1" s="82"/>
-      <c r="H1" s="82"/>
-      <c r="I1" s="82"/>
-      <c r="J1" s="82"/>
-      <c r="K1" s="79"/>
-      <c r="R1" s="157"/>
+      <c r="C1" s="81"/>
+      <c r="D1" s="81"/>
+      <c r="E1" s="81"/>
+      <c r="F1" s="81"/>
+      <c r="G1" s="81"/>
+      <c r="H1" s="81"/>
+      <c r="I1" s="81"/>
+      <c r="J1" s="81"/>
+      <c r="K1" s="73"/>
+      <c r="R1" s="140"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="145"/>
+      <c r="W1" s="141"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="59"/>
-      <c r="B2" s="74"/>
+      <c r="B2" s="82"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -34572,39 +34572,39 @@
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
       <c r="J2" s="70"/>
-      <c r="K2" s="73"/>
+      <c r="K2" s="83"/>
     </row>
     <row r="3" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="59"/>
-      <c r="B3" s="75"/>
-      <c r="C3" s="76"/>
-      <c r="D3" s="76"/>
-      <c r="E3" s="76"/>
-      <c r="F3" s="76"/>
-      <c r="G3" s="76"/>
-      <c r="H3" s="76"/>
-      <c r="I3" s="76"/>
-      <c r="J3" s="76"/>
-      <c r="K3" s="77"/>
+      <c r="B3" s="87"/>
+      <c r="C3" s="77"/>
+      <c r="D3" s="77"/>
+      <c r="E3" s="77"/>
+      <c r="F3" s="77"/>
+      <c r="G3" s="77"/>
+      <c r="H3" s="77"/>
+      <c r="I3" s="77"/>
+      <c r="J3" s="77"/>
+      <c r="K3" s="75"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="158" t="s">
+      <c r="B4" s="142" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="82"/>
-      <c r="D4" s="82"/>
-      <c r="E4" s="82"/>
-      <c r="F4" s="82"/>
-      <c r="G4" s="82"/>
-      <c r="H4" s="82"/>
-      <c r="I4" s="82"/>
-      <c r="J4" s="82"/>
-      <c r="K4" s="79"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
+      <c r="E4" s="81"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
+      <c r="I4" s="81"/>
+      <c r="J4" s="81"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="159" t="s">
+      <c r="B5" s="143" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="70"/>
@@ -34615,22 +34615,22 @@
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
-      <c r="K5" s="73"/>
+      <c r="K5" s="83"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="B6" s="94" t="s">
+      <c r="B6" s="76" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="76"/>
-      <c r="D6" s="76"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="76"/>
-      <c r="G6" s="76"/>
-      <c r="H6" s="76"/>
-      <c r="I6" s="76"/>
-      <c r="J6" s="76"/>
-      <c r="K6" s="77"/>
+      <c r="C6" s="77"/>
+      <c r="D6" s="77"/>
+      <c r="E6" s="77"/>
+      <c r="F6" s="77"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="77"/>
+      <c r="I6" s="77"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="75"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -34647,7 +34647,7 @@
     </row>
     <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
-      <c r="B8" s="155" t="s">
+      <c r="B8" s="144" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="70"/>
@@ -34658,7 +34658,7 @@
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
-      <c r="K8" s="73"/>
+      <c r="K8" s="83"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -34737,7 +34737,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="127" t="s">
+      <c r="B14" s="118" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="70"/>
@@ -34752,7 +34752,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
-      <c r="B15" s="72" t="s">
+      <c r="B15" s="108" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="70"/>
@@ -34767,7 +34767,7 @@
     </row>
     <row r="16" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
-      <c r="B16" s="74"/>
+      <c r="B16" s="82"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -34808,46 +34808,46 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="146" t="s">
+      <c r="B19" s="145" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="90"/>
-      <c r="D19" s="101" t="s">
+      <c r="D19" s="100" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="90"/>
-      <c r="F19" s="101" t="s">
+      <c r="F19" s="100" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="90"/>
-      <c r="H19" s="101" t="s">
+      <c r="H19" s="100" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="90"/>
-      <c r="J19" s="101" t="s">
+      <c r="J19" s="100" t="s">
         <v>135</v>
       </c>
       <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="130" t="s">
+      <c r="B20" s="136" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="90"/>
-      <c r="D20" s="152">
+      <c r="D20" s="148">
         <v>68029310</v>
       </c>
       <c r="E20" s="90"/>
-      <c r="F20" s="101">
+      <c r="F20" s="100">
         <v>53.18</v>
       </c>
       <c r="G20" s="90"/>
-      <c r="H20" s="101">
+      <c r="H20" s="100">
         <v>5942.53</v>
       </c>
       <c r="I20" s="90"/>
-      <c r="J20" s="153">
+      <c r="J20" s="149">
         <f>F20*H20</f>
         <v>316023.74539999996</v>
       </c>
@@ -34855,56 +34855,56 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="87"/>
+      <c r="B21" s="94"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="145"/>
-      <c r="G21" s="154"/>
-      <c r="H21" s="148" t="s">
+      <c r="F21" s="141"/>
+      <c r="G21" s="150"/>
+      <c r="H21" s="152" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="149"/>
-      <c r="J21" s="150">
+      <c r="I21" s="153"/>
+      <c r="J21" s="146">
         <f>J20*0.001</f>
         <v>316.02374539999994</v>
       </c>
-      <c r="K21" s="151"/>
+      <c r="K21" s="147"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="121"/>
-      <c r="C22" s="76"/>
-      <c r="D22" s="76"/>
-      <c r="E22" s="76"/>
+      <c r="B22" s="133"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="77"/>
+      <c r="E22" s="77"/>
       <c r="F22" s="34"/>
       <c r="G22" s="65"/>
-      <c r="H22" s="140" t="s">
+      <c r="H22" s="155" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="141"/>
-      <c r="J22" s="142">
+      <c r="I22" s="156"/>
+      <c r="J22" s="157">
         <f>SUM(J20:K21)</f>
         <v>316339.76914539997</v>
       </c>
-      <c r="K22" s="143"/>
+      <c r="K22" s="158"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="87"/>
+      <c r="B23" s="94"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="144"/>
+      <c r="H23" s="159"/>
       <c r="I23" s="70"/>
-      <c r="J23" s="145"/>
-      <c r="K23" s="73"/>
+      <c r="J23" s="141"/>
+      <c r="K23" s="83"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="146" t="s">
+      <c r="B24" s="145" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="89"/>
@@ -34914,7 +34914,7 @@
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="139">
+      <c r="J24" s="154">
         <f>J22</f>
         <v>316339.76914539997</v>
       </c>
@@ -34935,7 +34935,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
-      <c r="B26" s="147" t="s">
+      <c r="B26" s="151" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="70"/>
@@ -35091,7 +35091,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
-      <c r="B36" s="135" t="s">
+      <c r="B36" s="117" t="s">
         <v>151</v>
       </c>
       <c r="C36" s="70"/>
@@ -35106,7 +35106,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
-      <c r="B37" s="135" t="s">
+      <c r="B37" s="117" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="70"/>
@@ -36149,11 +36149,26 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B14:G14"/>
@@ -36163,26 +36178,11 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId1"/>

--- a/24-25/Invoice 24-25/19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
+++ b/24-25/Invoice 24-25/19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black/Invoice template, PO, Packing List, Proforma invoice.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Main\BK Exports bills\24-25\Invoice 24-25\19 BK019 Mar 24-25 NGUYEN MINH (VK) Markino Black\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43E7C590-2612-4C21-8573-8156D1457162}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F893A1D7-28AE-46F2-930E-411228A2E104}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="6945" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="company data" sheetId="1" r:id="rId1"/>
@@ -1295,53 +1295,58 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="166" fontId="10" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1368,73 +1373,32 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1468,45 +1432,42 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1520,6 +1481,45 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="0" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -31118,8 +31118,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="R26" sqref="R26"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M31" sqref="M31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -31138,7 +31138,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A1" s="97" t="s">
+      <c r="A1" s="98" t="s">
         <v>41</v>
       </c>
       <c r="B1" s="70"/>
@@ -31152,16 +31152,16 @@
       <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="77"/>
-      <c r="B2" s="77"/>
-      <c r="C2" s="77"/>
-      <c r="D2" s="77"/>
-      <c r="E2" s="77"/>
-      <c r="F2" s="77"/>
-      <c r="G2" s="77"/>
-      <c r="H2" s="77"/>
-      <c r="I2" s="77"/>
-      <c r="J2" s="77"/>
+      <c r="A2" s="76"/>
+      <c r="B2" s="76"/>
+      <c r="C2" s="76"/>
+      <c r="D2" s="76"/>
+      <c r="E2" s="76"/>
+      <c r="F2" s="76"/>
+      <c r="G2" s="76"/>
+      <c r="H2" s="76"/>
+      <c r="I2" s="76"/>
+      <c r="J2" s="76"/>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" s="16" t="s">
@@ -31170,16 +31170,16 @@
       <c r="B3" s="17"/>
       <c r="C3" s="17"/>
       <c r="D3" s="18"/>
-      <c r="E3" s="72" t="s">
+      <c r="E3" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="F3" s="81"/>
-      <c r="G3" s="73"/>
-      <c r="H3" s="72" t="s">
+      <c r="F3" s="82"/>
+      <c r="G3" s="79"/>
+      <c r="H3" s="81" t="s">
         <v>44</v>
       </c>
-      <c r="I3" s="81"/>
-      <c r="J3" s="73"/>
+      <c r="I3" s="82"/>
+      <c r="J3" s="79"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -31188,18 +31188,18 @@
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
       <c r="D4" s="20"/>
-      <c r="E4" s="98" t="str">
+      <c r="E4" s="99" t="str">
         <f>'input data'!B3</f>
         <v>BK019/24-25</v>
       </c>
-      <c r="F4" s="77"/>
-      <c r="G4" s="75"/>
-      <c r="H4" s="99">
+      <c r="F4" s="76"/>
+      <c r="G4" s="77"/>
+      <c r="H4" s="100">
         <f>'input data'!B4</f>
         <v>45727</v>
       </c>
-      <c r="I4" s="77"/>
-      <c r="J4" s="75"/>
+      <c r="I4" s="76"/>
+      <c r="J4" s="77"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="21" t="s">
@@ -31208,16 +31208,16 @@
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
       <c r="D5" s="20"/>
-      <c r="E5" s="72" t="s">
+      <c r="E5" s="81" t="s">
         <v>47</v>
       </c>
-      <c r="F5" s="81"/>
-      <c r="G5" s="73"/>
-      <c r="H5" s="72" t="s">
+      <c r="F5" s="82"/>
+      <c r="G5" s="79"/>
+      <c r="H5" s="81" t="s">
         <v>48</v>
       </c>
-      <c r="I5" s="81"/>
-      <c r="J5" s="73"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="79"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
@@ -31226,15 +31226,15 @@
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
       <c r="D6" s="20"/>
-      <c r="E6" s="76"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="75"/>
-      <c r="H6" s="103" t="str">
+      <c r="E6" s="94"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="77"/>
+      <c r="H6" s="93" t="str">
         <f>'input data'!B5</f>
         <v>AD240424008317F</v>
       </c>
-      <c r="I6" s="77"/>
-      <c r="J6" s="75"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="77"/>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" s="21" t="s">
@@ -31243,16 +31243,16 @@
       <c r="B7" s="4"/>
       <c r="C7" s="4"/>
       <c r="D7" s="20"/>
-      <c r="E7" s="72" t="s">
+      <c r="E7" s="81" t="s">
         <v>51</v>
       </c>
-      <c r="F7" s="81"/>
-      <c r="G7" s="73"/>
-      <c r="H7" s="72" t="s">
+      <c r="F7" s="82"/>
+      <c r="G7" s="79"/>
+      <c r="H7" s="81" t="s">
         <v>52</v>
       </c>
-      <c r="I7" s="81"/>
-      <c r="J7" s="73"/>
+      <c r="I7" s="82"/>
+      <c r="J7" s="79"/>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" s="19" t="s">
@@ -31261,16 +31261,16 @@
       <c r="B8" s="4"/>
       <c r="C8" s="4"/>
       <c r="D8" s="20"/>
-      <c r="E8" s="76" t="s">
+      <c r="E8" s="94" t="s">
         <v>54</v>
       </c>
-      <c r="F8" s="77"/>
-      <c r="G8" s="75"/>
-      <c r="H8" s="74" t="s">
+      <c r="F8" s="76"/>
+      <c r="G8" s="77"/>
+      <c r="H8" s="95" t="s">
         <v>55</v>
       </c>
-      <c r="I8" s="77"/>
-      <c r="J8" s="75"/>
+      <c r="I8" s="76"/>
+      <c r="J8" s="77"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" s="22" t="s">
@@ -31279,16 +31279,16 @@
       <c r="B9" s="4"/>
       <c r="C9" s="4"/>
       <c r="D9" s="20"/>
-      <c r="E9" s="72" t="s">
+      <c r="E9" s="81" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="81"/>
-      <c r="G9" s="73"/>
-      <c r="H9" s="72" t="s">
+      <c r="F9" s="82"/>
+      <c r="G9" s="79"/>
+      <c r="H9" s="81" t="s">
         <v>58</v>
       </c>
-      <c r="I9" s="81"/>
-      <c r="J9" s="73"/>
+      <c r="I9" s="82"/>
+      <c r="J9" s="79"/>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" s="22" t="s">
@@ -31297,68 +31297,68 @@
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
       <c r="D10" s="20"/>
-      <c r="E10" s="94" t="str">
+      <c r="E10" s="87" t="str">
         <f>'input data'!B13</f>
         <v>Loose packing</v>
       </c>
       <c r="F10" s="70"/>
-      <c r="G10" s="83"/>
-      <c r="H10" s="94" t="str">
+      <c r="G10" s="73"/>
+      <c r="H10" s="87" t="str">
         <f>'input data'!B12 &amp; " " &amp; 'input data'!B14</f>
         <v>1 FCL</v>
       </c>
       <c r="I10" s="70"/>
-      <c r="J10" s="83"/>
+      <c r="J10" s="73"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="96" t="s">
+      <c r="A11" s="97" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="73"/>
-      <c r="E11" s="100" t="s">
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="79"/>
+      <c r="E11" s="101" t="s">
         <v>61</v>
       </c>
       <c r="F11" s="89"/>
       <c r="G11" s="90"/>
-      <c r="H11" s="105" t="s">
+      <c r="H11" s="88" t="s">
         <v>62</v>
       </c>
       <c r="I11" s="89"/>
       <c r="J11" s="90"/>
     </row>
     <row r="12" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="101" t="s">
+      <c r="A12" s="102" t="s">
         <v>63</v>
       </c>
       <c r="B12" s="70"/>
       <c r="C12" s="70"/>
-      <c r="D12" s="83"/>
-      <c r="E12" s="102" t="str">
+      <c r="D12" s="73"/>
+      <c r="E12" s="103" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
       <c r="F12" s="70"/>
-      <c r="G12" s="83"/>
-      <c r="H12" s="106" t="str">
+      <c r="G12" s="73"/>
+      <c r="H12" s="91" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
       <c r="I12" s="70"/>
-      <c r="J12" s="83"/>
+      <c r="J12" s="73"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" s="19"/>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
       <c r="D13" s="20"/>
-      <c r="E13" s="87"/>
-      <c r="F13" s="77"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="77"/>
-      <c r="I13" s="77"/>
-      <c r="J13" s="75"/>
+      <c r="E13" s="75"/>
+      <c r="F13" s="76"/>
+      <c r="G13" s="77"/>
+      <c r="H13" s="76"/>
+      <c r="I13" s="76"/>
+      <c r="J13" s="77"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" s="16" t="s">
@@ -31367,17 +31367,17 @@
       <c r="B14" s="17"/>
       <c r="C14" s="17"/>
       <c r="D14" s="18"/>
-      <c r="E14" s="107" t="s">
+      <c r="E14" s="92" t="s">
         <v>65</v>
       </c>
-      <c r="F14" s="81"/>
-      <c r="G14" s="81"/>
-      <c r="H14" s="81"/>
-      <c r="I14" s="81"/>
-      <c r="J14" s="73"/>
+      <c r="F14" s="82"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="82"/>
+      <c r="I14" s="82"/>
+      <c r="J14" s="79"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="str">
+      <c r="A15" s="72" t="str">
         <f>'input data'!B6</f>
         <v xml:space="preserve">Name: NGUYEN MINH IMPORT EXPORT TM&amp;DV COMPANY LIMITED
 Add:  1041/82/1 Tran Xuan Soan, Tan Hung Ward, District 7, Ho Chi Minh city
@@ -31387,225 +31387,225 @@
       </c>
       <c r="B15" s="70"/>
       <c r="C15" s="70"/>
-      <c r="D15" s="83"/>
-      <c r="E15" s="82"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
       <c r="F15" s="70"/>
       <c r="G15" s="70"/>
       <c r="H15" s="70"/>
       <c r="I15" s="70"/>
-      <c r="J15" s="83"/>
+      <c r="J15" s="73"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
-      <c r="D16" s="83"/>
-      <c r="E16" s="82"/>
+      <c r="D16" s="73"/>
+      <c r="E16" s="74"/>
       <c r="F16" s="70"/>
       <c r="G16" s="70"/>
       <c r="H16" s="70"/>
       <c r="I16" s="70"/>
-      <c r="J16" s="83"/>
+      <c r="J16" s="73"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
-      <c r="D17" s="83"/>
-      <c r="E17" s="82"/>
+      <c r="D17" s="73"/>
+      <c r="E17" s="74"/>
       <c r="F17" s="70"/>
       <c r="G17" s="70"/>
       <c r="H17" s="70"/>
       <c r="I17" s="70"/>
-      <c r="J17" s="83"/>
+      <c r="J17" s="73"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
-      <c r="D18" s="83"/>
-      <c r="E18" s="82"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="74"/>
       <c r="F18" s="70"/>
       <c r="G18" s="70"/>
       <c r="H18" s="70"/>
       <c r="I18" s="70"/>
-      <c r="J18" s="83"/>
+      <c r="J18" s="73"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
-      <c r="D19" s="83"/>
-      <c r="E19" s="82"/>
+      <c r="D19" s="73"/>
+      <c r="E19" s="74"/>
       <c r="F19" s="70"/>
       <c r="G19" s="70"/>
       <c r="H19" s="70"/>
       <c r="I19" s="70"/>
-      <c r="J19" s="83"/>
+      <c r="J19" s="73"/>
     </row>
     <row r="20" spans="1:10" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="75"/>
-      <c r="E20" s="87"/>
-      <c r="F20" s="77"/>
-      <c r="G20" s="77"/>
-      <c r="H20" s="77"/>
-      <c r="I20" s="77"/>
-      <c r="J20" s="75"/>
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="77"/>
+      <c r="E20" s="75"/>
+      <c r="F20" s="76"/>
+      <c r="G20" s="76"/>
+      <c r="H20" s="76"/>
+      <c r="I20" s="76"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="104" t="s">
+      <c r="A21" s="78" t="s">
         <v>66</v>
       </c>
-      <c r="B21" s="73"/>
-      <c r="C21" s="104" t="s">
+      <c r="B21" s="79"/>
+      <c r="C21" s="78" t="s">
         <v>30</v>
       </c>
-      <c r="D21" s="73"/>
-      <c r="E21" s="104" t="s">
+      <c r="D21" s="79"/>
+      <c r="E21" s="78" t="s">
         <v>67</v>
       </c>
-      <c r="F21" s="81"/>
-      <c r="G21" s="73"/>
-      <c r="H21" s="104" t="s">
+      <c r="F21" s="82"/>
+      <c r="G21" s="79"/>
+      <c r="H21" s="78" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="81"/>
-      <c r="J21" s="73"/>
+      <c r="I21" s="82"/>
+      <c r="J21" s="79"/>
     </row>
     <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="109" t="s">
+      <c r="A22" s="80" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="83"/>
-      <c r="C22" s="111" t="str">
+      <c r="B22" s="73"/>
+      <c r="C22" s="84" t="str">
         <f>'input data'!B18</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D22" s="83"/>
-      <c r="E22" s="112" t="s">
+      <c r="D22" s="73"/>
+      <c r="E22" s="85" t="s">
         <v>69</v>
       </c>
       <c r="F22" s="70"/>
-      <c r="G22" s="83"/>
-      <c r="H22" s="112" t="str">
+      <c r="G22" s="73"/>
+      <c r="H22" s="85" t="str">
         <f>'input data'!B22</f>
         <v>VIETNAM</v>
       </c>
       <c r="I22" s="70"/>
-      <c r="J22" s="83"/>
+      <c r="J22" s="73"/>
     </row>
     <row r="23" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="113"/>
-      <c r="B23" s="83"/>
-      <c r="C23" s="87"/>
-      <c r="D23" s="75"/>
-      <c r="E23" s="87"/>
-      <c r="F23" s="77"/>
-      <c r="G23" s="75"/>
-      <c r="H23" s="87"/>
-      <c r="I23" s="77"/>
-      <c r="J23" s="75"/>
+      <c r="A23" s="86"/>
+      <c r="B23" s="73"/>
+      <c r="C23" s="75"/>
+      <c r="D23" s="77"/>
+      <c r="E23" s="75"/>
+      <c r="F23" s="76"/>
+      <c r="G23" s="77"/>
+      <c r="H23" s="75"/>
+      <c r="I23" s="76"/>
+      <c r="J23" s="77"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="72" t="s">
+      <c r="A24" s="81" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="73"/>
-      <c r="C24" s="110" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="83" t="s">
         <v>31</v>
       </c>
-      <c r="D24" s="73"/>
-      <c r="E24" s="72" t="s">
+      <c r="D24" s="79"/>
+      <c r="E24" s="81" t="s">
         <v>32</v>
       </c>
-      <c r="F24" s="81"/>
-      <c r="G24" s="73"/>
-      <c r="H24" s="110" t="s">
+      <c r="F24" s="82"/>
+      <c r="G24" s="79"/>
+      <c r="H24" s="83" t="s">
         <v>34</v>
       </c>
-      <c r="I24" s="81"/>
-      <c r="J24" s="73"/>
+      <c r="I24" s="82"/>
+      <c r="J24" s="79"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="76"/>
-      <c r="B25" s="75"/>
-      <c r="C25" s="74" t="str">
+      <c r="A25" s="94"/>
+      <c r="B25" s="77"/>
+      <c r="C25" s="95" t="str">
         <f>'input data'!B19</f>
         <v>MUNDRA</v>
       </c>
-      <c r="D25" s="75"/>
-      <c r="E25" s="74" t="str">
+      <c r="D25" s="77"/>
+      <c r="E25" s="95" t="str">
         <f>'input data'!B20</f>
         <v>DA NANG</v>
       </c>
-      <c r="F25" s="77"/>
-      <c r="G25" s="75"/>
-      <c r="H25" s="74" t="str">
+      <c r="F25" s="76"/>
+      <c r="G25" s="77"/>
+      <c r="H25" s="95" t="str">
         <f>'input data'!B21</f>
         <v>DA NANG</v>
       </c>
-      <c r="I25" s="77"/>
-      <c r="J25" s="75"/>
+      <c r="I25" s="76"/>
+      <c r="J25" s="77"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="78" t="s">
+      <c r="A26" s="111" t="s">
         <v>71</v>
       </c>
-      <c r="B26" s="80" t="s">
+      <c r="B26" s="113" t="s">
         <v>72</v>
       </c>
-      <c r="C26" s="81"/>
-      <c r="D26" s="73"/>
-      <c r="E26" s="78" t="s">
+      <c r="C26" s="82"/>
+      <c r="D26" s="79"/>
+      <c r="E26" s="111" t="s">
         <v>73</v>
       </c>
-      <c r="F26" s="72" t="s">
+      <c r="F26" s="81" t="s">
         <v>74</v>
       </c>
-      <c r="G26" s="73"/>
+      <c r="G26" s="79"/>
       <c r="H26" s="25" t="s">
         <v>40</v>
       </c>
-      <c r="I26" s="72" t="s">
+      <c r="I26" s="81" t="s">
         <v>75</v>
       </c>
-      <c r="J26" s="73"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="79"/>
-      <c r="B27" s="82"/>
+      <c r="A27" s="112"/>
+      <c r="B27" s="74"/>
       <c r="C27" s="70"/>
-      <c r="D27" s="83"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="74" t="s">
+      <c r="D27" s="73"/>
+      <c r="E27" s="112"/>
+      <c r="F27" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="G27" s="75"/>
+      <c r="G27" s="77"/>
       <c r="H27" s="26" t="s">
         <v>76</v>
       </c>
-      <c r="I27" s="74" t="s">
+      <c r="I27" s="95" t="s">
         <v>77</v>
       </c>
-      <c r="J27" s="75"/>
+      <c r="J27" s="77"/>
     </row>
     <row r="28" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="27">
         <v>1</v>
       </c>
-      <c r="B28" s="88" t="str">
+      <c r="B28" s="109" t="str">
         <f>'input data'!B17</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
       <c r="C28" s="89"/>
       <c r="D28" s="90"/>
       <c r="E28" s="28">
-        <v>68022390</v>
+        <v>68029310</v>
       </c>
-      <c r="F28" s="91">
+      <c r="F28" s="110">
         <f>'input data'!B25</f>
         <v>552.28</v>
       </c>
@@ -31614,7 +31614,7 @@
         <f>'input data'!B26</f>
         <v>8.6</v>
       </c>
-      <c r="I28" s="92">
+      <c r="I28" s="104">
         <f>H28*F28</f>
         <v>4749.6079999999993</v>
       </c>
@@ -31622,12 +31622,12 @@
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="30"/>
-      <c r="B29" s="76"/>
-      <c r="C29" s="77"/>
-      <c r="D29" s="75"/>
+      <c r="B29" s="94"/>
+      <c r="C29" s="76"/>
+      <c r="D29" s="77"/>
       <c r="E29" s="30"/>
-      <c r="F29" s="76"/>
-      <c r="G29" s="75"/>
+      <c r="F29" s="94"/>
+      <c r="G29" s="77"/>
       <c r="H29" s="31"/>
       <c r="I29" s="32"/>
       <c r="J29" s="31"/>
@@ -31653,7 +31653,7 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="94" t="str">
+      <c r="A31" s="87" t="str">
         <f>UPPER('input data'!B23)</f>
         <v>MEDU1373275</v>
       </c>
@@ -31680,7 +31680,7 @@
       <c r="C32" s="4"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="93"/>
+      <c r="F32" s="105"/>
       <c r="G32" s="70"/>
       <c r="H32" s="20"/>
       <c r="I32" s="19"/>
@@ -31709,11 +31709,11 @@
       <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="18"/>
-      <c r="I34" s="95">
+      <c r="I34" s="96">
         <f>SUM(I28:J33)</f>
         <v>4749.6079999999993</v>
       </c>
-      <c r="J34" s="73"/>
+      <c r="J34" s="79"/>
     </row>
     <row r="35" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
@@ -31726,32 +31726,32 @@
       <c r="F35" s="34"/>
       <c r="G35" s="34"/>
       <c r="H35" s="31"/>
-      <c r="I35" s="87"/>
-      <c r="J35" s="75"/>
+      <c r="I35" s="75"/>
+      <c r="J35" s="77"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="84" t="s">
+      <c r="A36" s="106" t="s">
         <v>83</v>
       </c>
-      <c r="B36" s="81"/>
-      <c r="C36" s="81"/>
-      <c r="D36" s="73"/>
-      <c r="E36" s="96" t="s">
+      <c r="B36" s="82"/>
+      <c r="C36" s="82"/>
+      <c r="D36" s="79"/>
+      <c r="E36" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="F36" s="81"/>
-      <c r="G36" s="81"/>
-      <c r="H36" s="81"/>
-      <c r="I36" s="81"/>
-      <c r="J36" s="73"/>
+      <c r="F36" s="82"/>
+      <c r="G36" s="82"/>
+      <c r="H36" s="82"/>
+      <c r="I36" s="82"/>
+      <c r="J36" s="79"/>
     </row>
     <row r="37" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="85" t="s">
+      <c r="A37" s="107" t="s">
         <v>85</v>
       </c>
       <c r="B37" s="70"/>
       <c r="C37" s="70"/>
-      <c r="D37" s="83"/>
+      <c r="D37" s="73"/>
       <c r="E37" s="19" t="s">
         <v>86</v>
       </c>
@@ -31762,10 +31762,10 @@
       <c r="J37" s="20"/>
     </row>
     <row r="38" spans="1:10" ht="19.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="82"/>
+      <c r="A38" s="74"/>
       <c r="B38" s="70"/>
       <c r="C38" s="70"/>
-      <c r="D38" s="83"/>
+      <c r="D38" s="73"/>
       <c r="E38" s="19"/>
       <c r="F38" s="4"/>
       <c r="G38" s="4"/>
@@ -31774,12 +31774,12 @@
       <c r="J38" s="20"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="86" t="s">
+      <c r="A39" s="108" t="s">
         <v>87</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
-      <c r="D39" s="83"/>
+      <c r="D39" s="73"/>
       <c r="E39" s="19"/>
       <c r="F39" s="4"/>
       <c r="G39" s="4"/>
@@ -31788,10 +31788,10 @@
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="87"/>
-      <c r="B40" s="77"/>
-      <c r="C40" s="77"/>
-      <c r="D40" s="75"/>
+      <c r="A40" s="75"/>
+      <c r="B40" s="76"/>
+      <c r="C40" s="76"/>
+      <c r="D40" s="77"/>
       <c r="E40" s="32" t="s">
         <v>88</v>
       </c>
@@ -32761,30 +32761,27 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="61">
-    <mergeCell ref="A15:D20"/>
-    <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:B22"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C22:D23"/>
-    <mergeCell ref="E22:G23"/>
-    <mergeCell ref="H22:J23"/>
-    <mergeCell ref="A23:B23"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="C24:D24"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="E21:G21"/>
-    <mergeCell ref="H21:J21"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J13"/>
-    <mergeCell ref="E14:J20"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="E7:G7"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="E8:G8"/>
-    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="I26:J26"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="I27:J27"/>
+    <mergeCell ref="A25:B25"/>
+    <mergeCell ref="C25:D25"/>
+    <mergeCell ref="E25:G25"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="A36:D36"/>
+    <mergeCell ref="A37:D38"/>
+    <mergeCell ref="A39:D40"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="B29:D29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="A31:B31"/>
     <mergeCell ref="I34:J35"/>
     <mergeCell ref="E36:J36"/>
     <mergeCell ref="A1:J2"/>
@@ -32801,27 +32798,30 @@
     <mergeCell ref="A12:D12"/>
     <mergeCell ref="E12:G13"/>
     <mergeCell ref="E6:G6"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="B29:D29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="A31:B31"/>
-    <mergeCell ref="A36:D36"/>
-    <mergeCell ref="A37:D38"/>
-    <mergeCell ref="A39:D40"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="I26:J26"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="I27:J27"/>
-    <mergeCell ref="A25:B25"/>
-    <mergeCell ref="C25:D25"/>
-    <mergeCell ref="E25:G25"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:D27"/>
-    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="E7:G7"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="E8:G8"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="E21:G21"/>
+    <mergeCell ref="H21:J21"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J13"/>
+    <mergeCell ref="E14:J20"/>
+    <mergeCell ref="A15:D20"/>
+    <mergeCell ref="A21:B21"/>
+    <mergeCell ref="A22:B22"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="C21:D21"/>
+    <mergeCell ref="C22:D23"/>
+    <mergeCell ref="E22:G23"/>
+    <mergeCell ref="H22:J23"/>
+    <mergeCell ref="A23:B23"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="C24:D24"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0200-000000000000}"/>
@@ -32837,8 +32837,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:J998"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="O24" sqref="O24"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="M29" sqref="M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -32850,7 +32850,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="132" t="s">
         <v>89</v>
       </c>
       <c r="B1" s="70"/>
@@ -32864,42 +32864,42 @@
       <c r="J1" s="70"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A2" s="96" t="s">
+      <c r="A2" s="97" t="s">
         <v>90</v>
       </c>
-      <c r="B2" s="81"/>
-      <c r="C2" s="81"/>
-      <c r="D2" s="81"/>
-      <c r="E2" s="81"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="72" t="s">
+      <c r="B2" s="82"/>
+      <c r="C2" s="82"/>
+      <c r="D2" s="82"/>
+      <c r="E2" s="82"/>
+      <c r="F2" s="79"/>
+      <c r="G2" s="81" t="s">
         <v>43</v>
       </c>
-      <c r="H2" s="73"/>
-      <c r="I2" s="114" t="s">
+      <c r="H2" s="79"/>
+      <c r="I2" s="133" t="s">
         <v>44</v>
       </c>
-      <c r="J2" s="73"/>
+      <c r="J2" s="79"/>
     </row>
     <row r="3" spans="1:10" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A3" s="117" t="s">
+      <c r="A3" s="134" t="s">
         <v>91</v>
       </c>
       <c r="B3" s="70"/>
       <c r="C3" s="70"/>
       <c r="D3" s="70"/>
       <c r="E3" s="70"/>
-      <c r="F3" s="83"/>
-      <c r="G3" s="98" t="str">
+      <c r="F3" s="73"/>
+      <c r="G3" s="99" t="str">
         <f>Inovice!E4</f>
         <v>BK019/24-25</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="99">
+      <c r="H3" s="77"/>
+      <c r="I3" s="100">
         <f>Inovice!H4</f>
         <v>45727</v>
       </c>
-      <c r="J3" s="75"/>
+      <c r="J3" s="77"/>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
@@ -32910,12 +32910,12 @@
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
       <c r="F4" s="20"/>
-      <c r="G4" s="114" t="s">
+      <c r="G4" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="73"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="79"/>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" s="19" t="s">
@@ -32926,15 +32926,15 @@
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
       <c r="F5" s="20"/>
-      <c r="G5" s="74" t="s">
+      <c r="G5" s="95" t="s">
         <v>94</v>
       </c>
-      <c r="H5" s="77"/>
-      <c r="I5" s="77"/>
-      <c r="J5" s="75"/>
+      <c r="H5" s="76"/>
+      <c r="I5" s="76"/>
+      <c r="J5" s="77"/>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A6" s="118" t="s">
+      <c r="A6" s="135" t="s">
         <v>95</v>
       </c>
       <c r="B6" s="70"/>
@@ -33010,13 +33010,13 @@
       <c r="J10" s="31"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A11" s="119" t="s">
+      <c r="A11" s="136" t="s">
         <v>60</v>
       </c>
-      <c r="B11" s="81"/>
-      <c r="C11" s="81"/>
-      <c r="D11" s="81"/>
-      <c r="E11" s="81"/>
+      <c r="B11" s="82"/>
+      <c r="C11" s="82"/>
+      <c r="D11" s="82"/>
+      <c r="E11" s="82"/>
       <c r="F11" s="18"/>
       <c r="G11" s="37" t="s">
         <v>101</v>
@@ -33026,7 +33026,7 @@
       <c r="J11" s="18"/>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12" s="120" t="s">
+      <c r="A12" s="137" t="s">
         <v>102</v>
       </c>
       <c r="B12" s="70"/>
@@ -33040,11 +33040,11 @@
       <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A13" s="87"/>
-      <c r="B13" s="77"/>
-      <c r="C13" s="77"/>
-      <c r="D13" s="77"/>
-      <c r="E13" s="77"/>
+      <c r="A13" s="75"/>
+      <c r="B13" s="76"/>
+      <c r="C13" s="76"/>
+      <c r="D13" s="76"/>
+      <c r="E13" s="76"/>
       <c r="F13" s="31"/>
       <c r="G13" s="19"/>
       <c r="H13" s="4"/>
@@ -33052,21 +33052,21 @@
       <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A14" s="119" t="s">
+      <c r="A14" s="136" t="s">
         <v>64</v>
       </c>
-      <c r="B14" s="81"/>
-      <c r="C14" s="81"/>
-      <c r="D14" s="81"/>
-      <c r="E14" s="81"/>
-      <c r="F14" s="73"/>
+      <c r="B14" s="82"/>
+      <c r="C14" s="82"/>
+      <c r="D14" s="82"/>
+      <c r="E14" s="82"/>
+      <c r="F14" s="79"/>
       <c r="G14" s="19"/>
       <c r="H14" s="4"/>
       <c r="I14" s="4"/>
       <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A15" s="108" t="str">
+      <c r="A15" s="72" t="str">
         <f>Inovice!A15</f>
         <v xml:space="preserve">Name: NGUYEN MINH IMPORT EXPORT TM&amp;DV COMPANY LIMITED
 Add:  1041/82/1 Tran Xuan Soan, Tan Hung Ward, District 7, Ho Chi Minh city
@@ -33078,93 +33078,93 @@
       <c r="C15" s="70"/>
       <c r="D15" s="70"/>
       <c r="E15" s="70"/>
-      <c r="F15" s="83"/>
+      <c r="F15" s="73"/>
       <c r="G15" s="19"/>
       <c r="H15" s="4"/>
       <c r="I15" s="4"/>
       <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A16" s="82"/>
+      <c r="A16" s="74"/>
       <c r="B16" s="70"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
-      <c r="F16" s="83"/>
+      <c r="F16" s="73"/>
       <c r="G16" s="19"/>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="20"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" s="82"/>
+      <c r="A17" s="74"/>
       <c r="B17" s="70"/>
       <c r="C17" s="70"/>
       <c r="D17" s="70"/>
       <c r="E17" s="70"/>
-      <c r="F17" s="83"/>
+      <c r="F17" s="73"/>
       <c r="G17" s="19"/>
       <c r="H17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="20"/>
     </row>
     <row r="18" spans="1:10" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="82"/>
+      <c r="A18" s="74"/>
       <c r="B18" s="70"/>
       <c r="C18" s="70"/>
       <c r="D18" s="70"/>
       <c r="E18" s="70"/>
-      <c r="F18" s="83"/>
-      <c r="G18" s="115" t="s">
+      <c r="F18" s="73"/>
+      <c r="G18" s="129" t="s">
         <v>103</v>
       </c>
-      <c r="H18" s="73"/>
-      <c r="I18" s="124" t="s">
+      <c r="H18" s="79"/>
+      <c r="I18" s="130" t="s">
         <v>104</v>
       </c>
-      <c r="J18" s="73"/>
+      <c r="J18" s="79"/>
     </row>
     <row r="19" spans="1:10" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="82"/>
+      <c r="A19" s="74"/>
       <c r="B19" s="70"/>
       <c r="C19" s="70"/>
       <c r="D19" s="70"/>
       <c r="E19" s="70"/>
-      <c r="F19" s="83"/>
-      <c r="G19" s="87"/>
-      <c r="H19" s="75"/>
-      <c r="I19" s="77"/>
-      <c r="J19" s="75"/>
+      <c r="F19" s="73"/>
+      <c r="G19" s="75"/>
+      <c r="H19" s="77"/>
+      <c r="I19" s="76"/>
+      <c r="J19" s="77"/>
     </row>
     <row r="20" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="87"/>
-      <c r="B20" s="77"/>
-      <c r="C20" s="77"/>
-      <c r="D20" s="77"/>
-      <c r="E20" s="77"/>
-      <c r="F20" s="75"/>
-      <c r="G20" s="125" t="s">
+      <c r="A20" s="75"/>
+      <c r="B20" s="76"/>
+      <c r="C20" s="76"/>
+      <c r="D20" s="76"/>
+      <c r="E20" s="76"/>
+      <c r="F20" s="77"/>
+      <c r="G20" s="131" t="s">
         <v>69</v>
       </c>
-      <c r="H20" s="75"/>
-      <c r="I20" s="125" t="str">
+      <c r="H20" s="77"/>
+      <c r="I20" s="131" t="str">
         <f>Inovice!H22</f>
         <v>VIETNAM</v>
       </c>
-      <c r="J20" s="75"/>
+      <c r="J20" s="77"/>
     </row>
     <row r="21" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="121" t="s">
+      <c r="A21" s="127" t="s">
         <v>105</v>
       </c>
-      <c r="B21" s="81"/>
-      <c r="C21" s="73"/>
-      <c r="D21" s="121" t="s">
+      <c r="B21" s="82"/>
+      <c r="C21" s="79"/>
+      <c r="D21" s="127" t="s">
         <v>106</v>
       </c>
-      <c r="E21" s="81"/>
-      <c r="F21" s="73"/>
-      <c r="G21" s="122" t="s">
+      <c r="E21" s="82"/>
+      <c r="F21" s="79"/>
+      <c r="G21" s="138" t="s">
         <v>107</v>
       </c>
       <c r="H21" s="89"/>
@@ -33172,66 +33172,66 @@
       <c r="J21" s="90"/>
     </row>
     <row r="22" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="76"/>
-      <c r="B22" s="77"/>
-      <c r="C22" s="75"/>
-      <c r="D22" s="74" t="str">
+      <c r="A22" s="94"/>
+      <c r="B22" s="76"/>
+      <c r="C22" s="77"/>
+      <c r="D22" s="95" t="str">
         <f>Inovice!C22</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E22" s="77"/>
-      <c r="F22" s="75"/>
-      <c r="G22" s="123" t="str">
+      <c r="E22" s="76"/>
+      <c r="F22" s="77"/>
+      <c r="G22" s="128" t="str">
         <f>'input data'!B15</f>
         <v>CNF</v>
       </c>
-      <c r="H22" s="77"/>
-      <c r="I22" s="77"/>
-      <c r="J22" s="75"/>
+      <c r="H22" s="76"/>
+      <c r="I22" s="76"/>
+      <c r="J22" s="77"/>
     </row>
     <row r="23" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="121" t="s">
+      <c r="A23" s="127" t="s">
         <v>108</v>
       </c>
-      <c r="B23" s="81"/>
-      <c r="C23" s="73"/>
-      <c r="D23" s="121" t="s">
+      <c r="B23" s="82"/>
+      <c r="C23" s="79"/>
+      <c r="D23" s="127" t="s">
         <v>109</v>
       </c>
-      <c r="E23" s="81"/>
-      <c r="F23" s="73"/>
+      <c r="E23" s="82"/>
+      <c r="F23" s="79"/>
       <c r="G23" s="44"/>
       <c r="H23" s="45"/>
       <c r="I23" s="45"/>
       <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="76"/>
-      <c r="B24" s="77"/>
-      <c r="C24" s="75"/>
-      <c r="D24" s="74" t="str">
+      <c r="A24" s="94"/>
+      <c r="B24" s="76"/>
+      <c r="C24" s="77"/>
+      <c r="D24" s="95" t="str">
         <f>Inovice!C25</f>
         <v>MUNDRA</v>
       </c>
-      <c r="E24" s="77"/>
-      <c r="F24" s="75"/>
+      <c r="E24" s="76"/>
+      <c r="F24" s="77"/>
       <c r="G24" s="32"/>
       <c r="H24" s="34"/>
       <c r="I24" s="34"/>
       <c r="J24" s="31"/>
     </row>
     <row r="25" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="121" t="s">
+      <c r="A25" s="127" t="s">
         <v>32</v>
       </c>
-      <c r="B25" s="81"/>
-      <c r="C25" s="73"/>
-      <c r="D25" s="121" t="s">
+      <c r="B25" s="82"/>
+      <c r="C25" s="79"/>
+      <c r="D25" s="127" t="s">
         <v>34</v>
       </c>
-      <c r="E25" s="81"/>
-      <c r="F25" s="73"/>
-      <c r="G25" s="126" t="s">
+      <c r="E25" s="82"/>
+      <c r="F25" s="79"/>
+      <c r="G25" s="114" t="s">
         <v>110</v>
       </c>
       <c r="H25" s="89"/>
@@ -33239,25 +33239,25 @@
       <c r="J25" s="90"/>
     </row>
     <row r="26" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="113" t="str">
+      <c r="A26" s="86" t="str">
         <f>Inovice!E25</f>
         <v>DA NANG</v>
       </c>
       <c r="B26" s="70"/>
-      <c r="C26" s="83"/>
-      <c r="D26" s="113" t="str">
+      <c r="C26" s="73"/>
+      <c r="D26" s="86" t="str">
         <f>Inovice!H25</f>
         <v>DA NANG</v>
       </c>
       <c r="E26" s="70"/>
-      <c r="F26" s="83"/>
-      <c r="G26" s="115" t="str">
+      <c r="F26" s="73"/>
+      <c r="G26" s="129" t="str">
         <f>'input data'!B16</f>
         <v>100% Against Documents</v>
       </c>
-      <c r="H26" s="81"/>
-      <c r="I26" s="81"/>
-      <c r="J26" s="73"/>
+      <c r="H26" s="82"/>
+      <c r="I26" s="82"/>
+      <c r="J26" s="79"/>
     </row>
     <row r="27" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="47"/>
@@ -33275,32 +33275,32 @@
       <c r="A28" s="26" t="s">
         <v>71</v>
       </c>
-      <c r="B28" s="74" t="s">
+      <c r="B28" s="95" t="s">
         <v>111</v>
       </c>
-      <c r="C28" s="75"/>
-      <c r="D28" s="74" t="s">
+      <c r="C28" s="77"/>
+      <c r="D28" s="95" t="s">
         <v>72</v>
       </c>
-      <c r="E28" s="77"/>
-      <c r="F28" s="77"/>
+      <c r="E28" s="76"/>
+      <c r="F28" s="76"/>
       <c r="G28" s="50"/>
       <c r="H28" s="51"/>
-      <c r="I28" s="74" t="s">
+      <c r="I28" s="95" t="s">
         <v>76</v>
       </c>
-      <c r="J28" s="75"/>
+      <c r="J28" s="77"/>
     </row>
     <row r="29" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="27">
         <v>1</v>
       </c>
-      <c r="B29" s="88">
+      <c r="B29" s="109">
         <f>Inovice!E28</f>
-        <v>68022390</v>
+        <v>68029310</v>
       </c>
       <c r="C29" s="90"/>
-      <c r="D29" s="136" t="str">
+      <c r="D29" s="124" t="str">
         <f>Inovice!B28</f>
         <v>POLISHED GRANITE SLABS</v>
       </c>
@@ -33308,7 +33308,7 @@
       <c r="F29" s="89"/>
       <c r="G29" s="89"/>
       <c r="H29" s="90"/>
-      <c r="I29" s="137">
+      <c r="I29" s="125">
         <f>Inovice!F28</f>
         <v>552.28</v>
       </c>
@@ -33325,7 +33325,7 @@
       <c r="F30" s="48"/>
       <c r="G30" s="48"/>
       <c r="H30" s="48"/>
-      <c r="I30" s="138">
+      <c r="I30" s="126">
         <f>SUM(I29:J29)</f>
         <v>552.28</v>
       </c>
@@ -33344,14 +33344,14 @@
       <c r="J31" s="36"/>
     </row>
     <row r="32" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="113" t="s">
+      <c r="A32" s="86" t="s">
         <v>113</v>
       </c>
       <c r="B32" s="70"/>
       <c r="C32" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D32" s="93" t="s">
+      <c r="D32" s="105" t="s">
         <v>78</v>
       </c>
       <c r="E32" s="70"/>
@@ -33364,7 +33364,7 @@
       <c r="J32" s="36"/>
     </row>
     <row r="33" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="94" t="str">
+      <c r="A33" s="87" t="str">
         <f>Inovice!A31</f>
         <v>MEDU1373275</v>
       </c>
@@ -33373,7 +33373,7 @@
         <f>Inovice!C31</f>
         <v>186</v>
       </c>
-      <c r="D33" s="134" t="s">
+      <c r="D33" s="122" t="s">
         <v>114</v>
       </c>
       <c r="E33" s="70"/>
@@ -33441,64 +33441,64 @@
       <c r="J37" s="58"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="96" t="s">
+      <c r="A38" s="97" t="s">
         <v>118</v>
       </c>
-      <c r="B38" s="81"/>
-      <c r="C38" s="81"/>
-      <c r="D38" s="81"/>
-      <c r="E38" s="81"/>
-      <c r="F38" s="73"/>
-      <c r="G38" s="96" t="s">
+      <c r="B38" s="82"/>
+      <c r="C38" s="82"/>
+      <c r="D38" s="82"/>
+      <c r="E38" s="82"/>
+      <c r="F38" s="79"/>
+      <c r="G38" s="97" t="s">
         <v>84</v>
       </c>
-      <c r="H38" s="81"/>
-      <c r="I38" s="81"/>
-      <c r="J38" s="73"/>
+      <c r="H38" s="82"/>
+      <c r="I38" s="82"/>
+      <c r="J38" s="79"/>
     </row>
     <row r="39" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="135" t="s">
+      <c r="A39" s="123" t="s">
         <v>119</v>
       </c>
       <c r="B39" s="70"/>
       <c r="C39" s="70"/>
       <c r="D39" s="70"/>
       <c r="E39" s="70"/>
-      <c r="F39" s="83"/>
+      <c r="F39" s="73"/>
       <c r="G39" s="19"/>
       <c r="H39" s="4"/>
       <c r="I39" s="4"/>
       <c r="J39" s="20"/>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="127" t="s">
+      <c r="A40" s="115" t="s">
         <v>120</v>
       </c>
-      <c r="B40" s="128"/>
-      <c r="C40" s="128"/>
-      <c r="D40" s="128"/>
-      <c r="E40" s="128"/>
-      <c r="F40" s="129"/>
+      <c r="B40" s="116"/>
+      <c r="C40" s="116"/>
+      <c r="D40" s="116"/>
+      <c r="E40" s="116"/>
+      <c r="F40" s="117"/>
       <c r="G40" s="19"/>
       <c r="H40" s="4"/>
       <c r="I40" s="4"/>
       <c r="J40" s="20"/>
     </row>
     <row r="41" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="130" t="s">
+      <c r="A41" s="118" t="s">
         <v>121</v>
       </c>
-      <c r="B41" s="131"/>
-      <c r="C41" s="131"/>
-      <c r="D41" s="131"/>
-      <c r="E41" s="131"/>
-      <c r="F41" s="132"/>
-      <c r="G41" s="133" t="s">
+      <c r="B41" s="119"/>
+      <c r="C41" s="119"/>
+      <c r="D41" s="119"/>
+      <c r="E41" s="119"/>
+      <c r="F41" s="120"/>
+      <c r="G41" s="121" t="s">
         <v>122</v>
       </c>
-      <c r="H41" s="77"/>
-      <c r="I41" s="77"/>
-      <c r="J41" s="75"/>
+      <c r="H41" s="76"/>
+      <c r="I41" s="76"/>
+      <c r="J41" s="77"/>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="43" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -34459,6 +34459,41 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="G4:J4"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="G26:J26"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="I28:J28"/>
+    <mergeCell ref="G5:J5"/>
+    <mergeCell ref="A6:E6"/>
+    <mergeCell ref="A11:E11"/>
+    <mergeCell ref="A12:E13"/>
+    <mergeCell ref="A14:F14"/>
+    <mergeCell ref="A15:F20"/>
+    <mergeCell ref="A21:C21"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="G21:J21"/>
+    <mergeCell ref="A22:C22"/>
+    <mergeCell ref="A1:J1"/>
+    <mergeCell ref="A2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="G22:J22"/>
+    <mergeCell ref="G18:H19"/>
+    <mergeCell ref="I18:J19"/>
+    <mergeCell ref="G20:H20"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="A23:C23"/>
+    <mergeCell ref="A24:C24"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A25:C25"/>
+    <mergeCell ref="D25:F25"/>
     <mergeCell ref="G25:J25"/>
     <mergeCell ref="A26:C26"/>
     <mergeCell ref="A40:F40"/>
@@ -34475,41 +34510,6 @@
     <mergeCell ref="D29:H29"/>
     <mergeCell ref="I29:J29"/>
     <mergeCell ref="I30:J30"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="A23:C23"/>
-    <mergeCell ref="A24:C24"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A25:C25"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="G22:J22"/>
-    <mergeCell ref="G18:H19"/>
-    <mergeCell ref="I18:J19"/>
-    <mergeCell ref="G20:H20"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="A1:J1"/>
-    <mergeCell ref="A2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G4:J4"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="G26:J26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="I28:J28"/>
-    <mergeCell ref="G5:J5"/>
-    <mergeCell ref="A6:E6"/>
-    <mergeCell ref="A11:E11"/>
-    <mergeCell ref="A12:E13"/>
-    <mergeCell ref="A14:F14"/>
-    <mergeCell ref="A15:F20"/>
-    <mergeCell ref="A21:C21"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="G21:J21"/>
-    <mergeCell ref="A22:C22"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="A9" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
@@ -34540,30 +34540,30 @@
   <sheetData>
     <row r="1" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="59"/>
-      <c r="B1" s="139" t="s">
+      <c r="B1" s="156" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="81"/>
-      <c r="D1" s="81"/>
-      <c r="E1" s="81"/>
-      <c r="F1" s="81"/>
-      <c r="G1" s="81"/>
-      <c r="H1" s="81"/>
-      <c r="I1" s="81"/>
-      <c r="J1" s="81"/>
-      <c r="K1" s="73"/>
-      <c r="R1" s="140"/>
+      <c r="C1" s="82"/>
+      <c r="D1" s="82"/>
+      <c r="E1" s="82"/>
+      <c r="F1" s="82"/>
+      <c r="G1" s="82"/>
+      <c r="H1" s="82"/>
+      <c r="I1" s="82"/>
+      <c r="J1" s="82"/>
+      <c r="K1" s="79"/>
+      <c r="R1" s="157"/>
       <c r="S1" s="70"/>
       <c r="T1" s="70"/>
       <c r="U1" s="70"/>
       <c r="V1" s="70"/>
-      <c r="W1" s="141"/>
+      <c r="W1" s="145"/>
       <c r="X1" s="70"/>
       <c r="Y1" s="70"/>
     </row>
     <row r="2" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="59"/>
-      <c r="B2" s="82"/>
+      <c r="B2" s="74"/>
       <c r="C2" s="70"/>
       <c r="D2" s="70"/>
       <c r="E2" s="70"/>
@@ -34572,39 +34572,39 @@
       <c r="H2" s="70"/>
       <c r="I2" s="70"/>
       <c r="J2" s="70"/>
-      <c r="K2" s="83"/>
+      <c r="K2" s="73"/>
     </row>
     <row r="3" spans="1:25" ht="36" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" s="59"/>
-      <c r="B3" s="87"/>
-      <c r="C3" s="77"/>
-      <c r="D3" s="77"/>
-      <c r="E3" s="77"/>
-      <c r="F3" s="77"/>
-      <c r="G3" s="77"/>
-      <c r="H3" s="77"/>
-      <c r="I3" s="77"/>
-      <c r="J3" s="77"/>
-      <c r="K3" s="75"/>
+      <c r="B3" s="75"/>
+      <c r="C3" s="76"/>
+      <c r="D3" s="76"/>
+      <c r="E3" s="76"/>
+      <c r="F3" s="76"/>
+      <c r="G3" s="76"/>
+      <c r="H3" s="76"/>
+      <c r="I3" s="76"/>
+      <c r="J3" s="76"/>
+      <c r="K3" s="77"/>
     </row>
     <row r="4" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A4" s="60"/>
-      <c r="B4" s="142" t="s">
+      <c r="B4" s="158" t="s">
         <v>123</v>
       </c>
-      <c r="C4" s="81"/>
-      <c r="D4" s="81"/>
-      <c r="E4" s="81"/>
-      <c r="F4" s="81"/>
-      <c r="G4" s="81"/>
-      <c r="H4" s="81"/>
-      <c r="I4" s="81"/>
-      <c r="J4" s="81"/>
-      <c r="K4" s="73"/>
+      <c r="C4" s="82"/>
+      <c r="D4" s="82"/>
+      <c r="E4" s="82"/>
+      <c r="F4" s="82"/>
+      <c r="G4" s="82"/>
+      <c r="H4" s="82"/>
+      <c r="I4" s="82"/>
+      <c r="J4" s="82"/>
+      <c r="K4" s="79"/>
     </row>
     <row r="5" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A5" s="60"/>
-      <c r="B5" s="143" t="s">
+      <c r="B5" s="159" t="s">
         <v>124</v>
       </c>
       <c r="C5" s="70"/>
@@ -34615,22 +34615,22 @@
       <c r="H5" s="70"/>
       <c r="I5" s="70"/>
       <c r="J5" s="70"/>
-      <c r="K5" s="83"/>
+      <c r="K5" s="73"/>
     </row>
     <row r="6" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A6" s="53"/>
-      <c r="B6" s="76" t="s">
+      <c r="B6" s="94" t="s">
         <v>125</v>
       </c>
-      <c r="C6" s="77"/>
-      <c r="D6" s="77"/>
-      <c r="E6" s="77"/>
-      <c r="F6" s="77"/>
-      <c r="G6" s="77"/>
-      <c r="H6" s="77"/>
-      <c r="I6" s="77"/>
-      <c r="J6" s="77"/>
-      <c r="K6" s="75"/>
+      <c r="C6" s="76"/>
+      <c r="D6" s="76"/>
+      <c r="E6" s="76"/>
+      <c r="F6" s="76"/>
+      <c r="G6" s="76"/>
+      <c r="H6" s="76"/>
+      <c r="I6" s="76"/>
+      <c r="J6" s="76"/>
+      <c r="K6" s="77"/>
     </row>
     <row r="7" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
@@ -34647,7 +34647,7 @@
     </row>
     <row r="8" spans="1:25" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A8" s="61"/>
-      <c r="B8" s="144" t="s">
+      <c r="B8" s="155" t="s">
         <v>126</v>
       </c>
       <c r="C8" s="70"/>
@@ -34658,7 +34658,7 @@
       <c r="H8" s="70"/>
       <c r="I8" s="70"/>
       <c r="J8" s="70"/>
-      <c r="K8" s="83"/>
+      <c r="K8" s="73"/>
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
@@ -34737,7 +34737,7 @@
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" s="15"/>
-      <c r="B14" s="118" t="s">
+      <c r="B14" s="135" t="s">
         <v>156</v>
       </c>
       <c r="C14" s="70"/>
@@ -34752,7 +34752,7 @@
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" s="64"/>
-      <c r="B15" s="108" t="s">
+      <c r="B15" s="72" t="s">
         <v>157</v>
       </c>
       <c r="C15" s="70"/>
@@ -34767,7 +34767,7 @@
     </row>
     <row r="16" spans="1:25" ht="47.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="64"/>
-      <c r="B16" s="82"/>
+      <c r="B16" s="74"/>
       <c r="C16" s="70"/>
       <c r="D16" s="70"/>
       <c r="E16" s="70"/>
@@ -34808,46 +34808,46 @@
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="54"/>
-      <c r="B19" s="145" t="s">
+      <c r="B19" s="146" t="s">
         <v>131</v>
       </c>
       <c r="C19" s="90"/>
-      <c r="D19" s="100" t="s">
+      <c r="D19" s="101" t="s">
         <v>132</v>
       </c>
       <c r="E19" s="90"/>
-      <c r="F19" s="100" t="s">
+      <c r="F19" s="101" t="s">
         <v>133</v>
       </c>
       <c r="G19" s="90"/>
-      <c r="H19" s="100" t="s">
+      <c r="H19" s="101" t="s">
         <v>134</v>
       </c>
       <c r="I19" s="90"/>
-      <c r="J19" s="100" t="s">
+      <c r="J19" s="101" t="s">
         <v>135</v>
       </c>
       <c r="K19" s="90"/>
     </row>
     <row r="20" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="3"/>
-      <c r="B20" s="136" t="s">
+      <c r="B20" s="124" t="s">
         <v>136</v>
       </c>
       <c r="C20" s="90"/>
-      <c r="D20" s="148">
+      <c r="D20" s="152">
         <v>68029310</v>
       </c>
       <c r="E20" s="90"/>
-      <c r="F20" s="100">
+      <c r="F20" s="101">
         <v>53.18</v>
       </c>
       <c r="G20" s="90"/>
-      <c r="H20" s="100">
+      <c r="H20" s="101">
         <v>5942.53</v>
       </c>
       <c r="I20" s="90"/>
-      <c r="J20" s="149">
+      <c r="J20" s="153">
         <f>F20*H20</f>
         <v>316023.74539999996</v>
       </c>
@@ -34855,56 +34855,56 @@
     </row>
     <row r="21" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="53"/>
-      <c r="B21" s="94"/>
+      <c r="B21" s="87"/>
       <c r="C21" s="70"/>
       <c r="D21" s="70"/>
       <c r="E21" s="70"/>
-      <c r="F21" s="141"/>
-      <c r="G21" s="150"/>
-      <c r="H21" s="152" t="s">
+      <c r="F21" s="145"/>
+      <c r="G21" s="154"/>
+      <c r="H21" s="148" t="s">
         <v>137</v>
       </c>
-      <c r="I21" s="153"/>
-      <c r="J21" s="146">
+      <c r="I21" s="149"/>
+      <c r="J21" s="150">
         <f>J20*0.001</f>
         <v>316.02374539999994</v>
       </c>
-      <c r="K21" s="147"/>
+      <c r="K21" s="151"/>
     </row>
     <row r="22" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="3"/>
-      <c r="B22" s="133"/>
-      <c r="C22" s="77"/>
-      <c r="D22" s="77"/>
-      <c r="E22" s="77"/>
+      <c r="B22" s="121"/>
+      <c r="C22" s="76"/>
+      <c r="D22" s="76"/>
+      <c r="E22" s="76"/>
       <c r="F22" s="34"/>
       <c r="G22" s="65"/>
-      <c r="H22" s="155" t="s">
+      <c r="H22" s="140" t="s">
         <v>112</v>
       </c>
-      <c r="I22" s="156"/>
-      <c r="J22" s="157">
+      <c r="I22" s="141"/>
+      <c r="J22" s="142">
         <f>SUM(J20:K21)</f>
         <v>316339.76914539997</v>
       </c>
-      <c r="K22" s="158"/>
+      <c r="K22" s="143"/>
     </row>
     <row r="23" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="53"/>
-      <c r="B23" s="94"/>
+      <c r="B23" s="87"/>
       <c r="C23" s="70"/>
       <c r="D23" s="70"/>
       <c r="E23" s="70"/>
       <c r="F23" s="4"/>
       <c r="G23" s="4"/>
-      <c r="H23" s="159"/>
+      <c r="H23" s="144"/>
       <c r="I23" s="70"/>
-      <c r="J23" s="141"/>
-      <c r="K23" s="83"/>
+      <c r="J23" s="145"/>
+      <c r="K23" s="73"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="54"/>
-      <c r="B24" s="145" t="s">
+      <c r="B24" s="146" t="s">
         <v>138</v>
       </c>
       <c r="C24" s="89"/>
@@ -34914,7 +34914,7 @@
       <c r="G24" s="48"/>
       <c r="H24" s="48"/>
       <c r="I24" s="48"/>
-      <c r="J24" s="154">
+      <c r="J24" s="139">
         <f>J22</f>
         <v>316339.76914539997</v>
       </c>
@@ -34935,7 +34935,7 @@
     </row>
     <row r="26" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="66"/>
-      <c r="B26" s="151" t="s">
+      <c r="B26" s="147" t="s">
         <v>139</v>
       </c>
       <c r="C26" s="70"/>
@@ -35091,7 +35091,7 @@
     </row>
     <row r="36" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="67"/>
-      <c r="B36" s="117" t="s">
+      <c r="B36" s="134" t="s">
         <v>151</v>
       </c>
       <c r="C36" s="70"/>
@@ -35106,7 +35106,7 @@
     </row>
     <row r="37" spans="1:11" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="67"/>
-      <c r="B37" s="117" t="s">
+      <c r="B37" s="134" t="s">
         <v>152</v>
       </c>
       <c r="C37" s="70"/>
@@ -36149,26 +36149,11 @@
     <row r="998" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="34">
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="B23:E23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B22:E22"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="B20:C20"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="B21:E21"/>
-    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B1:K3"/>
+    <mergeCell ref="R1:V1"/>
+    <mergeCell ref="W1:Y1"/>
+    <mergeCell ref="B4:K4"/>
+    <mergeCell ref="B5:K5"/>
     <mergeCell ref="B6:K6"/>
     <mergeCell ref="B8:K8"/>
     <mergeCell ref="B14:G14"/>
@@ -36178,11 +36163,26 @@
     <mergeCell ref="F19:G19"/>
     <mergeCell ref="H19:I19"/>
     <mergeCell ref="J19:K19"/>
-    <mergeCell ref="B1:K3"/>
-    <mergeCell ref="R1:V1"/>
-    <mergeCell ref="W1:Y1"/>
-    <mergeCell ref="B4:K4"/>
-    <mergeCell ref="B5:K5"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="B20:C20"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="B21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B22:E22"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="B23:E23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="B24:C24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup scale="91" orientation="portrait" r:id="rId1"/>
